--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -144,6 +144,33 @@
   </si>
   <si>
     <t>Géré les different Type de Résolution et celle-ci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration de Github et des dossiers pour le projet </t>
+  </si>
+  <si>
+    <t>Afficher et apprendre comment utiliser l'outils Camera Android , Faire Croquie L'interface</t>
+  </si>
+  <si>
+    <t>Continuer la configuration de l'interface et Apprendre Comment utiliser L'App Camera</t>
+  </si>
+  <si>
+    <t>Debug interface graphique</t>
+  </si>
+  <si>
+    <t>Cree Image BitMap et Aller chercher le Path de l'image créé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuster la Camera et debuger pour les permissions </t>
+  </si>
+  <si>
+    <t>Revoir l'interface pour la Camera et l'integration a un SurfaceView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration de mon Téléphone android et du scaling </t>
+  </si>
+  <si>
+    <t>J'ai réussi a faire afficher la Camera dans mon ImageView puis ensuite j'ai décider de le mettre dans un SurfaceView et utiliser directement la camera. J'ai été present a chaque cours et pense avoir respecter les heure qui mon été accorder</t>
   </si>
 </sst>
 </file>
@@ -287,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1837,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C47"/>
+  <dimension ref="A6:C39"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1897,170 +1927,149 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="23">
+        <v>43178</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="23">
+        <v>43179</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="23">
+        <v>43180</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="23">
+        <v>43185</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="23">
+        <v>43186</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="23">
+        <v>43180</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="16">
+        <f>SUM(C14:C21)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="16">
-        <f>SUM(C14:C36)</f>
-        <v>0</v>
-      </c>
+      <c r="B32" s="22"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="20"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -171,6 +171,27 @@
   </si>
   <si>
     <t>J'ai réussi a faire afficher la Camera dans mon ImageView puis ensuite j'ai décider de le mettre dans un SurfaceView et utiliser directement la camera. J'ai été present a chaque cours et pense avoir respecter les heure qui mon été accorder</t>
+  </si>
+  <si>
+    <t>Retravailler la Camera pour la mettre dans un Surface View</t>
+  </si>
+  <si>
+    <t>Création de l'interface avec les Buttons Image et les different composant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème pour réactiver la Camera apres avoir fait OnClick Image reste Fix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apprendre Comment utiliser les Constraint Layout </t>
+  </si>
+  <si>
+    <t>Faire une fonction et aller chercher les Trois couleurs R,B,G d'un image BitMap</t>
+  </si>
+  <si>
+    <t>Faire des test interface avec le constraint Layout et Faire des Prototype d'interface..</t>
+  </si>
+  <si>
+    <t>Creation d'un Carrée et inserer un ImageView Pardessus mon FrameView</t>
   </si>
 </sst>
 </file>
@@ -314,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,6 +372,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -366,9 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1734,10 +1756,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>60</v>
@@ -1839,10 +1861,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>30</v>
@@ -1869,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1927,7 +1949,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="18">
         <v>43178</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1938,7 +1960,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="18">
         <v>43179</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1949,7 +1971,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="18">
         <v>43180</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1960,7 +1982,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
@@ -1978,7 +2000,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="18">
         <v>43185</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1989,7 +2011,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="18">
         <v>43186</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2000,7 +2022,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="18">
         <v>43180</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2011,10 +2033,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="16">
         <f>SUM(C14:C21)</f>
         <v>16</v>
@@ -2042,24 +2064,24 @@
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
+      <c r="B28" s="22"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
+      <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
+      <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
+      <c r="B31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
+      <c r="B32" s="23"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
@@ -2081,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,41 +2161,81 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43187</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="24">
+        <v>43194</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="24">
+        <v>43217</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="24">
+        <v>43142</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="24">
+        <v>43148</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="24">
+        <v>43208</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -2256,13 +2318,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2284,22 +2346,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2489,10 +2551,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2517,22 +2579,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2722,10 +2784,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2750,22 +2812,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -192,6 +192,48 @@
   </si>
   <si>
     <t>Creation d'un Carrée et inserer un ImageView Pardessus mon FrameView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apprend comment calculer les differentes couleurs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apprendre Faire une fontions d'approximation de couleurs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get le min et le Max du barreme de couleurs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation d'une image Drawable Pour mettre par-dessus </t>
+  </si>
+  <si>
+    <t>Apprendre le constraint layout et mettre un ImageView Par-dessus un frame Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire la Structure pour resoudre le cube </t>
+  </si>
+  <si>
+    <t>Faire la fonction RechercheDeCouleur</t>
+  </si>
+  <si>
+    <t>Faire la fonction CalculerCouleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Régler le bug du Constraint Layout </t>
+  </si>
+  <si>
+    <t>Reapprendre le Constraint Layout</t>
+  </si>
+  <si>
+    <t>Commencer la résolution du cube 3x3x3 et aller chercher les différent parametres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appliquer des correctifs sur les Couleurs recherchers </t>
+  </si>
+  <si>
+    <t>Resoudre le bug de AppCompability (app Crash)</t>
+  </si>
+  <si>
+    <t>Régler le bug d'affichage du constraint layout</t>
   </si>
 </sst>
 </file>
@@ -375,6 +417,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -390,7 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,10 +1798,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>60</v>
@@ -1861,10 +1903,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>30</v>
@@ -2033,10 +2075,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="16">
         <f>SUM(C14:C21)</f>
         <v>16</v>
@@ -2064,24 +2106,24 @@
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
+      <c r="B29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
+      <c r="B30" s="23"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
+      <c r="B31" s="23"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
@@ -2103,7 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2172,7 +2214,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
+      <c r="A15" s="19">
         <v>43194</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2183,7 +2225,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="A16" s="19">
         <v>43217</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2205,7 +2247,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="A18" s="19">
         <v>43142</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2216,7 +2258,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="19">
         <v>43148</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2227,7 +2269,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="19">
         <v>43208</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2318,10 +2360,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>19</v>
@@ -2346,22 +2388,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2378,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,38 +2478,73 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43210</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="19">
+        <v>43214</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="19">
+        <v>43200</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="19">
+        <v>43201</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="19">
+        <v>43207</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="19">
+        <v>43208</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2551,13 +2628,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2647,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2579,22 +2658,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2611,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,44 +2748,92 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43228</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="19">
+        <v>43222</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="19">
+        <v>43222</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="19">
+        <v>43221</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="19">
+        <v>43221</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="19">
+        <v>43227</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="19">
+        <v>43250</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="19">
+        <v>43228</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -2784,13 +2911,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2803,7 +2930,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2812,22 +2941,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
